--- a/dev/fhir-ig/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2776,7 +2776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>149</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>180</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>210</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>221</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>241</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>246</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>261</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>274</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>286</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>290</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>311</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>328</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>337</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>344</v>
       </c>
@@ -8508,12 +8508,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP57">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
